--- a/Assignment/Module_2/Assesment Module-2.xlsx
+++ b/Assignment/Module_2/Assesment Module-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\Documents\GitHub\Dhruvin_Testing\Assessment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\Documents\GitHub\Dhruvin_Testing\Assignment\Module_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D0DA53-BAC2-4861-BDB6-A4ADC2BFC74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B519AD-A610-4F2D-8478-31817D8CA117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{435E4274-17EA-44CD-856B-A1DE3EC02608}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Defect-report" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="194">
   <si>
     <t>Status</t>
   </si>
@@ -352,9 +353,6 @@
   </si>
   <si>
     <t>check emoji oversizing has a limit in status it can cover a status</t>
-  </si>
-  <si>
-    <t>check when photo is on status there is  time limit of closing</t>
   </si>
   <si>
     <t xml:space="preserve">medium </t>
@@ -518,6 +516,108 @@
   </si>
   <si>
     <t xml:space="preserve">check if video calling in group chat while restricting certain person </t>
+  </si>
+  <si>
+    <t>Audio upload on status</t>
+  </si>
+  <si>
+    <t>check audio option to upload "audio only" status, if not user can not upload audio</t>
+  </si>
+  <si>
+    <t>whatsapp supports only two format Photos and videos with their all supported extensions</t>
+  </si>
+  <si>
+    <t>check if user can set the time for status to auto remove their status</t>
+  </si>
+  <si>
+    <t>User status time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whatsapp gives 24 hours validity to put your status after it get removed </t>
+  </si>
+  <si>
+    <t>there is a limit of duration on video to upload the status</t>
+  </si>
+  <si>
+    <t>Time Limit on video duration of status</t>
+  </si>
+  <si>
+    <t>check if user can set the duration for status to upload a complete video</t>
+  </si>
+  <si>
+    <t>check if there is a limit of size(MB) of video or image to upload the status</t>
+  </si>
+  <si>
+    <t>Size Limit to upload an video or photo</t>
+  </si>
+  <si>
+    <t>whatsapp does not let user to hide status or change in visible setting after uploading a status</t>
+  </si>
+  <si>
+    <t>change visible status setting after uploading a status</t>
+  </si>
+  <si>
+    <t>If photo is on status there is no time limit of closing</t>
+  </si>
+  <si>
+    <t>whatsapp added a time limit after opening a photo status and put a default duration of auto closing the status</t>
+  </si>
+  <si>
+    <t>Auto closing time limit in photo status</t>
+  </si>
+  <si>
+    <t>Downloading video or photo option in status</t>
+  </si>
+  <si>
+    <t>there is no option to download the status of others whether it is video or image</t>
+  </si>
+  <si>
+    <t>when video status is uploaded it does not have editing option and can only cutted from front and back</t>
+  </si>
+  <si>
+    <t>check the editing tools are given in video status or not</t>
+  </si>
+  <si>
+    <t>video status inbuilt editing tools</t>
+  </si>
+  <si>
+    <t>PDF or Word File are supported on status or not</t>
+  </si>
+  <si>
+    <t>whatsapp does not allow other formats to upload other than photos and videos</t>
+  </si>
+  <si>
+    <t>Overlaping of an GIF on status</t>
+  </si>
+  <si>
+    <t>Gif overlaps on photos or videos while setting it on status we cannot send at the back of the status</t>
+  </si>
+  <si>
+    <t>Overlaping of stickers on status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emoji insert in status </t>
+  </si>
+  <si>
+    <t>if insert emoji oversizing has a limit in status it can cover a status</t>
+  </si>
+  <si>
+    <t>check emoji is inserted and size can adjust in moderate</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Lz8kc0r/Untitled.png</t>
+  </si>
+  <si>
+    <t>there is a limit of size to what you upload should be less than 10 mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check if user can set the time in status </t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/5K20bcC/Untitled.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/71gnCB4/Untitled.png</t>
   </si>
 </sst>
 </file>
@@ -634,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -644,23 +744,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -979,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B15805-DDF4-4C1F-B268-4976D84B185E}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
@@ -990,11 +1091,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1359,11 +1460,11 @@
       <c r="C39" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -1665,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7605CB78-8765-4A67-A799-DD867C3BC1A4}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1680,41 +1781,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -1722,13 +1823,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>96</v>
@@ -1737,10 +1838,10 @@
         <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -1748,25 +1849,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="E4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -1774,25 +1875,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="E5" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -1800,25 +1901,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="E6" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -1826,13 +1927,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>96</v>
@@ -1841,10 +1942,10 @@
         <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -1852,25 +1953,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="E8" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -1878,25 +1979,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -1904,25 +2005,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="E10" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -1930,68 +2031,380 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="G15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>132</v>
+      <c r="D16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2019,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69842A8F-66B9-4A0B-9F97-0310E3BCAA33}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2036,44 +2449,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2088,13 +2501,13 @@
         <v>91</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>93</v>
@@ -2103,7 +2516,7 @@
         <v>93</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -2117,13 +2530,13 @@
         <v>91</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>92</v>
@@ -2132,7 +2545,7 @@
         <v>93</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -2146,13 +2559,13 @@
         <v>91</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>92</v>
@@ -2161,7 +2574,7 @@
         <v>92</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -2175,13 +2588,13 @@
         <v>91</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>92</v>
@@ -2190,7 +2603,7 @@
         <v>97</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -2204,13 +2617,13 @@
         <v>91</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>93</v>
@@ -2219,7 +2632,7 @@
         <v>93</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -2227,19 +2640,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>92</v>
@@ -2248,7 +2661,7 @@
         <v>98</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -2262,13 +2675,13 @@
         <v>91</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>93</v>
@@ -2277,7 +2690,7 @@
         <v>93</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
@@ -2285,19 +2698,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>93</v>
@@ -2306,7 +2719,7 @@
         <v>93</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -2320,13 +2733,13 @@
         <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>92</v>
@@ -2337,17 +2750,17 @@
       <c r="I11" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -2368,10 +2781,10 @@
       <c r="F15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>89</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -2389,13 +2802,13 @@
         <v>91</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>93</v>
@@ -2403,26 +2816,28 @@
       <c r="H16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="8" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>93</v>
@@ -2443,13 +2858,13 @@
         <v>91</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>92</v>
@@ -2457,7 +2872,9 @@
       <c r="H18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="8" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -2470,13 +2887,13 @@
         <v>91</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>93</v>
@@ -2484,7 +2901,9 @@
       <c r="H19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="8" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -2497,13 +2916,13 @@
         <v>91</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>92</v>
@@ -2524,13 +2943,13 @@
         <v>91</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>98</v>
@@ -2551,13 +2970,13 @@
         <v>91</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>92</v>
@@ -2578,19 +2997,19 @@
         <v>91</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -2605,13 +3024,13 @@
         <v>91</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>98</v>
@@ -2632,16 +3051,16 @@
         <v>91</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>98</v>
@@ -2659,13 +3078,13 @@
         <v>91</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>92</v>
@@ -2686,13 +3105,13 @@
         <v>91</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>92</v>
@@ -2717,6 +3136,9 @@
     <hyperlink ref="I8" r:id="rId6" xr:uid="{64F45EDD-CBA0-4F78-AD0C-8A1FDCBF7514}"/>
     <hyperlink ref="I9" r:id="rId7" xr:uid="{E10B1A0E-014F-4A20-BAC3-13C78F0EA897}"/>
     <hyperlink ref="I10" r:id="rId8" xr:uid="{DC6A5A45-4AB9-4791-A50A-1F702C954F25}"/>
+    <hyperlink ref="I16" r:id="rId9" xr:uid="{62085A8E-EA19-4F6E-90BF-2955D7E1F517}"/>
+    <hyperlink ref="I18" r:id="rId10" xr:uid="{7FA9AB1E-383B-48F9-A768-58E36FC55FB0}"/>
+    <hyperlink ref="I19" r:id="rId11" xr:uid="{9DE9E40A-2417-4950-8B53-4B6A182D6C08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
